--- a/scripts/game_map1.xlsx
+++ b/scripts/game_map1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12900" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="13500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,13 +55,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -211,7 +204,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,12 +291,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -353,12 +340,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,48 +555,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -625,101 +609,98 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -739,9 +720,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1142,7 +1120,7 @@
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
-      <c r="V2" s="7"/>
+      <c r="V2" s="2"/>
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
@@ -1161,7 +1139,7 @@
       <c r="AL2" s="4"/>
       <c r="AM2" s="4"/>
       <c r="AN2" s="4"/>
-      <c r="AO2" s="7"/>
+      <c r="AO2" s="2"/>
     </row>
     <row r="3" ht="51" customHeight="1" spans="1:41">
       <c r="A3" s="4"/>
@@ -1184,7 +1162,7 @@
       <c r="R3" s="4"/>
       <c r="S3" s="4"/>
       <c r="T3" s="4"/>
-      <c r="V3" s="7"/>
+      <c r="V3" s="2"/>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
@@ -1203,7 +1181,7 @@
       <c r="AL3" s="4"/>
       <c r="AM3" s="4"/>
       <c r="AN3" s="4"/>
-      <c r="AO3" s="7"/>
+      <c r="AO3" s="2"/>
     </row>
     <row r="4" ht="51" customHeight="1" spans="1:41">
       <c r="A4" s="4"/>
@@ -1226,7 +1204,7 @@
       <c r="R4" s="4"/>
       <c r="S4" s="4"/>
       <c r="T4" s="4"/>
-      <c r="V4" s="7"/>
+      <c r="V4" s="2"/>
       <c r="W4" s="4"/>
       <c r="X4" s="4"/>
       <c r="Y4" s="5" t="s">
@@ -1247,7 +1225,7 @@
       <c r="AL4" s="5"/>
       <c r="AM4" s="4"/>
       <c r="AN4" s="4"/>
-      <c r="AO4" s="7"/>
+      <c r="AO4" s="2"/>
     </row>
     <row r="5" ht="51" customHeight="1" spans="1:41">
       <c r="A5" s="4"/>
@@ -1270,7 +1248,7 @@
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
-      <c r="V5" s="7"/>
+      <c r="V5" s="2"/>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
       <c r="Y5" s="5"/>
@@ -1289,7 +1267,7 @@
       <c r="AL5" s="5"/>
       <c r="AM5" s="4"/>
       <c r="AN5" s="4"/>
-      <c r="AO5" s="7"/>
+      <c r="AO5" s="2"/>
     </row>
     <row r="6" ht="51" customHeight="1" spans="1:41">
       <c r="A6" s="4"/>
@@ -1312,7 +1290,7 @@
       <c r="R6" s="4"/>
       <c r="S6" s="4"/>
       <c r="T6" s="4"/>
-      <c r="V6" s="7"/>
+      <c r="V6" s="2"/>
       <c r="W6" s="4"/>
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
@@ -1331,7 +1309,7 @@
       <c r="AL6" s="4"/>
       <c r="AM6" s="4"/>
       <c r="AN6" s="4"/>
-      <c r="AO6" s="7"/>
+      <c r="AO6" s="2"/>
     </row>
     <row r="7" ht="51" customHeight="1" spans="1:41">
       <c r="A7" s="4"/>
@@ -1354,26 +1332,26 @@
       <c r="R7" s="4"/>
       <c r="S7" s="4"/>
       <c r="T7" s="4"/>
-      <c r="V7" s="7"/>
+      <c r="V7" s="2"/>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
-      <c r="AG7" s="8"/>
-      <c r="AH7" s="8"/>
-      <c r="AI7" s="8"/>
+      <c r="AG7" s="7"/>
+      <c r="AH7" s="7"/>
+      <c r="AI7" s="7"/>
       <c r="AJ7" s="4"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
       <c r="AM7" s="4"/>
       <c r="AN7" s="4"/>
-      <c r="AO7" s="7"/>
+      <c r="AO7" s="2"/>
     </row>
     <row r="8" ht="51" customHeight="1" spans="1:41">
       <c r="A8" s="4"/>
@@ -1396,26 +1374,26 @@
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
-      <c r="V8" s="7"/>
+      <c r="V8" s="2"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
-      <c r="AB8" s="8"/>
+      <c r="AB8" s="7"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
       <c r="AH8" s="4"/>
-      <c r="AI8" s="8"/>
+      <c r="AI8" s="7"/>
       <c r="AJ8" s="4"/>
       <c r="AK8" s="4"/>
       <c r="AL8" s="5"/>
       <c r="AM8" s="4"/>
       <c r="AN8" s="4"/>
-      <c r="AO8" s="7"/>
+      <c r="AO8" s="2"/>
     </row>
     <row r="9" ht="51" customHeight="1" spans="1:41">
       <c r="A9" s="4"/>
@@ -1438,26 +1416,26 @@
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
-      <c r="V9" s="7"/>
+      <c r="V9" s="2"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
       <c r="Y9" s="5"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
-      <c r="AB9" s="8"/>
+      <c r="AB9" s="7"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
       <c r="AH9" s="4"/>
-      <c r="AI9" s="8"/>
+      <c r="AI9" s="7"/>
       <c r="AJ9" s="4"/>
       <c r="AK9" s="4"/>
       <c r="AL9" s="5"/>
       <c r="AM9" s="4"/>
       <c r="AN9" s="4"/>
-      <c r="AO9" s="7"/>
+      <c r="AO9" s="2"/>
     </row>
     <row r="10" ht="51" customHeight="1" spans="1:41">
       <c r="A10" s="4"/>
@@ -1480,26 +1458,26 @@
       <c r="R10" s="4"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
-      <c r="V10" s="7"/>
+      <c r="V10" s="2"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
       <c r="Y10" s="5"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
-      <c r="AB10" s="8"/>
+      <c r="AB10" s="7"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
       <c r="AG10" s="4"/>
       <c r="AH10" s="4"/>
-      <c r="AI10" s="8"/>
+      <c r="AI10" s="7"/>
       <c r="AJ10" s="4"/>
       <c r="AK10" s="4"/>
       <c r="AL10" s="5"/>
       <c r="AM10" s="4"/>
       <c r="AN10" s="4"/>
-      <c r="AO10" s="7"/>
+      <c r="AO10" s="2"/>
     </row>
     <row r="11" ht="51" customHeight="1" spans="1:41">
       <c r="A11" s="4"/>
@@ -1522,26 +1500,26 @@
       <c r="R11" s="4"/>
       <c r="S11" s="4"/>
       <c r="T11" s="4"/>
-      <c r="V11" s="7"/>
+      <c r="V11" s="2"/>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
       <c r="Y11" s="5"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
-      <c r="AB11" s="8"/>
+      <c r="AB11" s="7"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
       <c r="AH11" s="4"/>
-      <c r="AI11" s="8"/>
+      <c r="AI11" s="7"/>
       <c r="AJ11" s="4"/>
       <c r="AK11" s="4"/>
       <c r="AL11" s="5"/>
       <c r="AM11" s="4"/>
       <c r="AN11" s="4"/>
-      <c r="AO11" s="7"/>
+      <c r="AO11" s="2"/>
     </row>
     <row r="12" ht="51" customHeight="1" spans="1:41">
       <c r="A12" s="4"/>
@@ -1564,26 +1542,26 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
-      <c r="V12" s="7"/>
+      <c r="V12" s="2"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
       <c r="Y12" s="5"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
-      <c r="AB12" s="8"/>
+      <c r="AB12" s="7"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
       <c r="AH12" s="4"/>
-      <c r="AI12" s="8"/>
+      <c r="AI12" s="7"/>
       <c r="AJ12" s="4"/>
       <c r="AK12" s="4"/>
       <c r="AL12" s="5"/>
       <c r="AM12" s="4"/>
       <c r="AN12" s="4"/>
-      <c r="AO12" s="7"/>
+      <c r="AO12" s="2"/>
     </row>
     <row r="13" ht="51" customHeight="1" spans="1:41">
       <c r="A13" s="4"/>
@@ -1606,26 +1584,26 @@
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
-      <c r="V13" s="7"/>
+      <c r="V13" s="2"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
       <c r="Y13" s="5"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
-      <c r="AB13" s="8"/>
+      <c r="AB13" s="7"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
       <c r="AH13" s="4"/>
-      <c r="AI13" s="8"/>
+      <c r="AI13" s="7"/>
       <c r="AJ13" s="4"/>
       <c r="AK13" s="4"/>
       <c r="AL13" s="5"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
-      <c r="AO13" s="7"/>
+      <c r="AO13" s="2"/>
     </row>
     <row r="14" ht="51" customHeight="1" spans="1:41">
       <c r="A14" s="4"/>
@@ -1648,26 +1626,26 @@
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
-      <c r="V14" s="7"/>
+      <c r="V14" s="2"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
-      <c r="AG14" s="8"/>
-      <c r="AH14" s="8"/>
-      <c r="AI14" s="8"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="7"/>
       <c r="AJ14" s="4"/>
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
       <c r="AM14" s="4"/>
       <c r="AN14" s="4"/>
-      <c r="AO14" s="7"/>
+      <c r="AO14" s="2"/>
     </row>
     <row r="15" ht="51" customHeight="1" spans="1:41">
       <c r="A15" s="4"/>
@@ -1690,7 +1668,7 @@
       <c r="R15" s="4"/>
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
-      <c r="V15" s="7"/>
+      <c r="V15" s="2"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
@@ -1709,7 +1687,7 @@
       <c r="AL15" s="4"/>
       <c r="AM15" s="4"/>
       <c r="AN15" s="4"/>
-      <c r="AO15" s="7"/>
+      <c r="AO15" s="2"/>
     </row>
     <row r="16" ht="51" customHeight="1" spans="1:41">
       <c r="A16" s="4"/>
@@ -1732,7 +1710,7 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
-      <c r="V16" s="7"/>
+      <c r="V16" s="2"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
       <c r="Y16" s="5"/>
@@ -1751,7 +1729,7 @@
       <c r="AL16" s="5"/>
       <c r="AM16" s="4"/>
       <c r="AN16" s="4"/>
-      <c r="AO16" s="7"/>
+      <c r="AO16" s="2"/>
     </row>
     <row r="17" ht="51" customHeight="1" spans="1:41">
       <c r="A17" s="4"/>
@@ -1774,7 +1752,7 @@
       <c r="R17" s="4"/>
       <c r="S17" s="4"/>
       <c r="T17" s="4"/>
-      <c r="V17" s="7"/>
+      <c r="V17" s="2"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
       <c r="Y17" s="5"/>
@@ -1793,7 +1771,7 @@
       <c r="AL17" s="5"/>
       <c r="AM17" s="4"/>
       <c r="AN17" s="4"/>
-      <c r="AO17" s="7"/>
+      <c r="AO17" s="2"/>
     </row>
     <row r="18" ht="51" customHeight="1" spans="1:41">
       <c r="A18" s="4"/>
@@ -1816,7 +1794,7 @@
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
-      <c r="V18" s="7"/>
+      <c r="V18" s="2"/>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
@@ -1835,7 +1813,7 @@
       <c r="AL18" s="4"/>
       <c r="AM18" s="4"/>
       <c r="AN18" s="4"/>
-      <c r="AO18" s="7"/>
+      <c r="AO18" s="2"/>
     </row>
     <row r="19" ht="51" customHeight="1" spans="1:41">
       <c r="A19" s="4"/>
@@ -1858,7 +1836,7 @@
       <c r="R19" s="4"/>
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
-      <c r="V19" s="7"/>
+      <c r="V19" s="2"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
@@ -1877,7 +1855,7 @@
       <c r="AL19" s="4"/>
       <c r="AM19" s="4"/>
       <c r="AN19" s="4"/>
-      <c r="AO19" s="7"/>
+      <c r="AO19" s="2"/>
     </row>
     <row r="20" ht="51" customHeight="1" spans="1:41">
       <c r="A20" s="4"/>
@@ -1900,26 +1878,26 @@
       <c r="R20" s="4"/>
       <c r="S20" s="4"/>
       <c r="T20" s="4"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="7"/>
-      <c r="AC20" s="7"/>
-      <c r="AD20" s="7"/>
-      <c r="AE20" s="7"/>
-      <c r="AF20" s="7"/>
-      <c r="AG20" s="7"/>
-      <c r="AH20" s="7"/>
-      <c r="AI20" s="7"/>
-      <c r="AJ20" s="7"/>
-      <c r="AK20" s="7"/>
-      <c r="AL20" s="7"/>
-      <c r="AM20" s="7"/>
-      <c r="AN20" s="7"/>
-      <c r="AO20" s="7"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1934,7 +1912,7 @@
   <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2042,8 +2020,8 @@
       <c r="I2" s="3">
         <v>1</v>
       </c>
-      <c r="J2" s="2">
-        <v>0</v>
+      <c r="J2" s="3">
+        <v>1</v>
       </c>
       <c r="K2" s="3">
         <v>1</v>
@@ -2169,8 +2147,8 @@
       <c r="G4" s="3">
         <v>1</v>
       </c>
-      <c r="H4" s="2">
-        <v>0</v>
+      <c r="H4" s="3">
+        <v>1</v>
       </c>
       <c r="I4" s="2">
         <v>0</v>
@@ -2184,8 +2162,8 @@
       <c r="L4" s="2">
         <v>0</v>
       </c>
-      <c r="M4" s="2">
-        <v>0</v>
+      <c r="M4" s="3">
+        <v>1</v>
       </c>
       <c r="N4" s="3">
         <v>1</v>
@@ -2405,8 +2383,8 @@
       <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="2">
-        <v>0</v>
+      <c r="D8" s="3">
+        <v>1</v>
       </c>
       <c r="E8" s="3">
         <v>1</v>
@@ -2444,8 +2422,8 @@
       <c r="P8" s="3">
         <v>1</v>
       </c>
-      <c r="Q8" s="2">
-        <v>0</v>
+      <c r="Q8" s="3">
+        <v>1</v>
       </c>
       <c r="R8" s="3">
         <v>1</v>
@@ -2715,8 +2693,8 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="2">
-        <v>0</v>
+      <c r="D13" s="3">
+        <v>1</v>
       </c>
       <c r="E13" s="3">
         <v>1</v>
@@ -2754,8 +2732,8 @@
       <c r="P13" s="3">
         <v>1</v>
       </c>
-      <c r="Q13" s="2">
-        <v>0</v>
+      <c r="Q13" s="3">
+        <v>1</v>
       </c>
       <c r="R13" s="3">
         <v>1</v>
@@ -2975,8 +2953,8 @@
       <c r="G17" s="3">
         <v>1</v>
       </c>
-      <c r="H17" s="2">
-        <v>0</v>
+      <c r="H17" s="3">
+        <v>1</v>
       </c>
       <c r="I17" s="2">
         <v>0</v>
@@ -2990,8 +2968,8 @@
       <c r="L17" s="2">
         <v>0</v>
       </c>
-      <c r="M17" s="2">
-        <v>0</v>
+      <c r="M17" s="3">
+        <v>1</v>
       </c>
       <c r="N17" s="3">
         <v>1</v>
